--- a/app/documentation/ER-Model-with-data.xlsx
+++ b/app/documentation/ER-Model-with-data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\SW1\SERVER\app\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD165EC-B9C9-42A0-8878-BA8C0C30128C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70CF87B-5143-4EFB-B79B-E1A5443ED1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26385" windowHeight="14775" xr2:uid="{95FBC7EA-98F3-48A7-A553-9ADE9F5F88F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TASK" sheetId="3" r:id="rId1"/>
+    <sheet name="BIG" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
   <si>
     <t>productId</t>
   </si>
@@ -144,13 +146,232 @@
   </si>
   <si>
     <t>optimal 1 product =&gt; 1 table</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>option_id</t>
+  </si>
+  <si>
+    <t>option_entity_id</t>
+  </si>
+  <si>
+    <t>option_entity_name</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>256GB</t>
+  </si>
+  <si>
+    <t>product_group_Id</t>
+  </si>
+  <si>
+    <t>product_group_name</t>
+  </si>
+  <si>
+    <t>iPhones</t>
+  </si>
+  <si>
+    <t>Samsung Mobile</t>
+  </si>
+  <si>
+    <t>OS Samsung</t>
+  </si>
+  <si>
+    <t>OS iPhpne</t>
+  </si>
+  <si>
+    <t>catalog_options</t>
+  </si>
+  <si>
+    <t>entity_options_plan</t>
+  </si>
+  <si>
+    <t>iOS 11</t>
+  </si>
+  <si>
+    <t>iOS 12</t>
+  </si>
+  <si>
+    <t>Android 11</t>
+  </si>
+  <si>
+    <t>Android 12</t>
+  </si>
+  <si>
+    <t>Android 13</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>option_entity_type</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>catalog_options_values_text</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>rest_start</t>
+  </si>
+  <si>
+    <t>rest_in_orders</t>
+  </si>
+  <si>
+    <t>rest_free</t>
+  </si>
+  <si>
+    <t>With USB 3 ports</t>
+  </si>
+  <si>
+    <t>Touch ID in keyboard</t>
+  </si>
+  <si>
+    <t>product_entity</t>
+  </si>
+  <si>
+    <t>entity_options_set_values</t>
+  </si>
+  <si>
+    <t>entity_options_set_id</t>
+  </si>
+  <si>
+    <t>entity_options_set_price</t>
+  </si>
+  <si>
+    <t>entity_Id</t>
+  </si>
+  <si>
+    <t>option_value_attributes</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red </t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>attribute_name</t>
+  </si>
+  <si>
+    <t>attribute_value</t>
+  </si>
+  <si>
+    <t>attribute_entity</t>
+  </si>
+  <si>
+    <t>attribute_options</t>
+  </si>
+  <si>
+    <t>catalog_product_entity_text</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t>price_list</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>DATA STRUCTURES EXAMPLE</t>
+  </si>
+  <si>
+    <t>entity_id</t>
+  </si>
+  <si>
+    <t>attribute_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + displayValue, id</t>
+  </si>
+  <si>
+    <t>procuct_id</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>order_header</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>order_email</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>order_client_name</t>
+  </si>
+  <si>
+    <t>order_item_id</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>order_item_total</t>
+  </si>
+  <si>
+    <t>order_item_attributes</t>
+  </si>
+  <si>
+    <t>order_item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +417,35 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF080808"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +458,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -281,11 +541,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,6 +621,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,6 +657,276 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966BC1A5-BEA0-719E-44DB-52FDD43B1B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3076575" y="1066800"/>
+          <a:ext cx="1704975" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C342F691-872F-99FC-A4A1-1A4F5E153A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3695700" y="2057400"/>
+          <a:ext cx="1447800" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1632A4A-32DA-BDA5-B65A-7AF33292F02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5019675" y="1181100"/>
+          <a:ext cx="9525" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FDC92E-0C55-D402-CE58-6121324DCBFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="1162050"/>
+          <a:ext cx="809625" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6495718-BE73-2CA5-F6E5-E1D47DD033AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="981075" y="1200150"/>
+          <a:ext cx="9525" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,14 +1245,1168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500DEE6D-C5E3-46EB-B9C3-362188A084B5}">
+  <dimension ref="A2:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="B2" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>801</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="H9" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="20"/>
+      <c r="H11">
+        <v>801</v>
+      </c>
+      <c r="I11">
+        <v>80001</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12">
+        <v>80002</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>80003</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>801</v>
+      </c>
+      <c r="F14">
+        <v>80001</v>
+      </c>
+      <c r="I14">
+        <v>80004</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15">
+        <v>80002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="F16">
+        <v>80003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="F17">
+        <v>80004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>102</v>
+      </c>
+      <c r="C21">
+        <v>158</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="G23" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="G26" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="G29" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4875C5B5-478B-42C9-852C-C1C638279530}">
+  <dimension ref="A2:Z59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23">
+      <c r="W2" s="12"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75">
+      <c r="J3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75">
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75">
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1">
+        <v>801</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75">
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1">
+        <v>802</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75">
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="J7" s="1">
+        <v>803</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75">
+      <c r="J8" s="1">
+        <v>804</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75">
+      <c r="J9" s="1">
+        <v>805</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75">
+      <c r="J10" s="1">
+        <v>806</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75">
+      <c r="J11" s="1">
+        <v>807</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75">
+      <c r="J12" s="1">
+        <v>808</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75">
+      <c r="J13" s="1">
+        <v>809</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75">
+      <c r="B14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75">
+      <c r="A15" s="4"/>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75">
+      <c r="B16" s="1">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1">
+        <v>801</v>
+      </c>
+      <c r="K16" s="1">
+        <v>80101</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="1">
+        <v>80101</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75">
+      <c r="B17" s="1">
+        <v>102</v>
+      </c>
+      <c r="C17" s="1">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="1">
+        <v>801</v>
+      </c>
+      <c r="K17" s="1">
+        <v>80102</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="1">
+        <v>80101</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75">
+      <c r="B18" s="1">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1">
+        <v>801</v>
+      </c>
+      <c r="K18" s="1">
+        <v>80103</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="1">
+        <v>80101</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75">
+      <c r="B20" s="1">
+        <v>201</v>
+      </c>
+      <c r="C20" s="1">
+        <v>201</v>
+      </c>
+      <c r="D20" s="1">
+        <v>200</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="1">
+        <v>802</v>
+      </c>
+      <c r="K20" s="1">
+        <v>80201</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="B21" s="1">
+        <v>202</v>
+      </c>
+      <c r="C21" s="1">
+        <v>202</v>
+      </c>
+      <c r="D21" s="1">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1">
+        <v>802</v>
+      </c>
+      <c r="K21" s="1">
+        <v>80202</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75">
+      <c r="B22" s="1">
+        <v>203</v>
+      </c>
+      <c r="C22" s="1">
+        <v>203</v>
+      </c>
+      <c r="D22" s="1">
+        <v>200</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="1">
+        <v>803</v>
+      </c>
+      <c r="K22" s="1">
+        <v>80203</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="2"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75">
+      <c r="E24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="1">
+        <v>801</v>
+      </c>
+      <c r="K24" s="1">
+        <v>80104</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="E25" s="16"/>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>801</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="1">
+        <v>801</v>
+      </c>
+      <c r="K25" s="1">
+        <v>80105</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="E26" s="16"/>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>802</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="1">
+        <v>801</v>
+      </c>
+      <c r="K26" s="1">
+        <v>80106</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="E27" s="16"/>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>803</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="E28" s="16"/>
+      <c r="F28" s="1">
+        <v>200</v>
+      </c>
+      <c r="G28" s="1">
+        <v>801</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="1">
+        <v>801</v>
+      </c>
+      <c r="K28" s="1">
+        <v>80204</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="E29" s="16"/>
+      <c r="F29" s="1">
+        <v>200</v>
+      </c>
+      <c r="G29" s="1">
+        <v>802</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="1">
+        <v>801</v>
+      </c>
+      <c r="K29" s="1">
+        <v>80205</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="E30" s="16"/>
+      <c r="F30" s="1">
+        <v>200</v>
+      </c>
+      <c r="G30" s="1">
+        <v>804</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="1">
+        <v>801</v>
+      </c>
+      <c r="K30" s="1">
+        <v>80206</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>501</v>
+      </c>
+      <c r="B33" s="1">
+        <v>888</v>
+      </c>
+      <c r="C33" s="1">
+        <v>888</v>
+      </c>
+      <c r="E33" s="1">
+        <v>501</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1">
+        <v>80101</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>502</v>
+      </c>
+      <c r="B34" s="1">
+        <v>777</v>
+      </c>
+      <c r="C34" s="1">
+        <v>777</v>
+      </c>
+      <c r="E34" s="1">
+        <v>501</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="H34" s="1">
+        <v>80201</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>503</v>
+      </c>
+      <c r="B35" s="1">
+        <v>555</v>
+      </c>
+      <c r="C35" s="1">
+        <v>555</v>
+      </c>
+      <c r="E35" s="1">
+        <v>501</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="H35" s="1">
+        <v>80104</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>504</v>
+      </c>
+      <c r="B36" s="1">
+        <v>444</v>
+      </c>
+      <c r="C36" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="E37" s="1">
+        <v>502</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1">
+        <v>80102</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="E38" s="1">
+        <v>502</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="H38" s="1">
+        <v>80201</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="E39" s="1">
+        <v>502</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="H39" s="1">
+        <v>80104</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="E41" s="1">
+        <v>503</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1">
+        <v>80101</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="E42" s="1">
+        <v>503</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1">
+        <v>80201</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="E43" s="1">
+        <v>503</v>
+      </c>
+      <c r="F43" s="1">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1">
+        <v>80105</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="E45" s="1">
+        <v>504</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1">
+        <v>80102</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="E46" s="1">
+        <v>504</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1">
+        <v>80201</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="E47" s="1">
+        <v>504</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+      <c r="H47" s="1">
+        <v>80105</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75">
+      <c r="A53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75">
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>501</v>
+      </c>
+      <c r="B56" s="1">
+        <v>111</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>502</v>
+      </c>
+      <c r="B57" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>503</v>
+      </c>
+      <c r="B58" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>504</v>
+      </c>
+      <c r="B59" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D4A275-E30F-4D90-8CE1-786C3FCA59D1}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
@@ -664,23 +2420,23 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="H2" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -697,7 +2453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -711,7 +2467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -723,7 +2479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -735,7 +2491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -745,7 +2501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -755,7 +2511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -763,7 +2519,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -773,7 +2529,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -785,7 +2541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -800,7 +2556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -813,7 +2569,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -826,7 +2582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="E16" s="7" t="s">
         <v>23</v>
       </c>
@@ -836,7 +2592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -850,7 +2606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
@@ -860,7 +2616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -868,7 +2624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -891,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
@@ -903,7 +2659,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
@@ -911,7 +2667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
@@ -921,6 +2677,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>